--- a/ExcelData/excel_Character.xlsx
+++ b/ExcelData/excel_Character.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workplace\ZProject_1\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24495" windowHeight="5715"/>
+    <workbookView windowWidth="24675" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="2" r:id="rId1"/>
@@ -39,74 +34,77 @@
     <t>string</t>
   </si>
   <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>日语</t>
-  </si>
-  <si>
-    <t>道具1</t>
-  </si>
-  <si>
-    <t>prop1</t>
-  </si>
-  <si>
-    <t>道具2</t>
-  </si>
-  <si>
-    <t>prop2</t>
-  </si>
-  <si>
-    <t>道具3</t>
-  </si>
-  <si>
-    <t>prop3</t>
-  </si>
-  <si>
-    <t>描述1</t>
-  </si>
-  <si>
-    <t>des1</t>
-  </si>
-  <si>
-    <t>描述2</t>
-  </si>
-  <si>
-    <t>des2</t>
-  </si>
-  <si>
-    <t>描述3</t>
-  </si>
-  <si>
-    <t>des3</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">编号
-</t>
+      <t>编号</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="9"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>150000-159999</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>道具1</t>
+  </si>
+  <si>
+    <t>prop1</t>
+  </si>
+  <si>
+    <t>道具2</t>
+  </si>
+  <si>
+    <t>prop2</t>
+  </si>
+  <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>prop3</t>
+  </si>
+  <si>
+    <t>描述1</t>
+  </si>
+  <si>
+    <t>des1</t>
+  </si>
+  <si>
+    <t>描述2</t>
+  </si>
+  <si>
+    <t>des2</t>
+  </si>
+  <si>
+    <t>描述3</t>
+  </si>
+  <si>
+    <t>des3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,37 +113,359 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,33 +473,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -437,19 +1043,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -457,7 +1063,7 @@
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -485,107 +1091,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="28.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>10000</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>20001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>20002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>20003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ExcelData/excel_Character.xlsx
+++ b/ExcelData/excel_Character.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,51 @@
   </si>
   <si>
     <t>path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>requency</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击频率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有暴击动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticalHitAnim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,12 +569,12 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
-    <col min="6" max="1025" width="9" customWidth="1"/>
+    <col min="4" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="8" max="1027" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,11 +587,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -560,10 +611,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -577,10 +634,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>150000</v>
       </c>
@@ -591,13 +654,19 @@
         <v>100</v>
       </c>
       <c r="D4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>150001</v>
       </c>
@@ -608,13 +677,17 @@
         <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>150002</v>
       </c>
@@ -625,13 +698,17 @@
         <v>100</v>
       </c>
       <c r="D6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>150003</v>
       </c>
@@ -642,13 +719,17 @@
         <v>100</v>
       </c>
       <c r="D7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>150004</v>
       </c>
@@ -659,13 +740,17 @@
         <v>100</v>
       </c>
       <c r="D8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>150005</v>
       </c>
@@ -676,15 +761,19 @@
         <v>100</v>
       </c>
       <c r="D9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelData/excel_Character.xlsx
+++ b/ExcelData/excel_Character.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>path</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -146,6 +142,46 @@
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述，无实际作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackProgressBack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击伤害触发点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -208,6 +244,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,216 +597,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="33.625" customWidth="1"/>
-    <col min="8" max="1027" width="9" customWidth="1"/>
+    <col min="1" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="33.625" customWidth="1"/>
+    <col min="10" max="1029" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>150000</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
         <v>10000</v>
       </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.5</v>
+      <c r="D4" s="2">
+        <v>10000</v>
       </c>
       <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="b">
+      <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>150001</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.5</v>
-      </c>
       <c r="E5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>150002</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
         <v>10002</v>
       </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.5</v>
+      <c r="D6" s="2">
+        <v>10000</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>150003</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
         <v>10003</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="D7" s="1">
-        <v>1.5</v>
-      </c>
       <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>150004</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
         <v>10004</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.5</v>
-      </c>
       <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>150005</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
         <v>10005</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="D9" s="1">
-        <v>1.5</v>
-      </c>
       <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
     </row>

--- a/ExcelData/excel_Character.xlsx
+++ b/ExcelData/excel_Character.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
         <v>10000</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -743,7 +743,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>10000</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -799,7 +799,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>

--- a/ExcelData/excel_Character.xlsx
+++ b/ExcelData/excel_Character.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -73,37 +73,9 @@
     <t>入战范围</t>
   </si>
   <si>
-    <t>路径</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetDynamic/AI/150002</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetDynamic/AI/150004</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetDynamic/AI/150005</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetDynamic/AI/150003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/AssetDynamic/AI/150001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/AssetDynamic/AI/150000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>path</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>attack</t>
     </r>
@@ -165,14 +137,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orc AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>attackProgressBack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -182,6 +146,116 @@
   </si>
   <si>
     <t>攻击伤害触发点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方ai路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方ai路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/Game/AssetDynamic/AI/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hero/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/Game/AssetDynamic/AI/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hero/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150001</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/Game/AssetDynamic/AI/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Enemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/150000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/Game/AssetDynamic/AI/Enemy/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150001</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -249,6 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,15 +685,16 @@
     <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="33.625" customWidth="1"/>
-    <col min="10" max="1029" width="9" customWidth="1"/>
+    <col min="10" max="10" width="29.625" customWidth="1"/>
+    <col min="11" max="1029" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -630,24 +706,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -659,24 +738,27 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -688,36 +770,39 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>150000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>10000</v>
       </c>
       <c r="D4" s="2">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -725,16 +810,19 @@
       <c r="H4" s="1">
         <v>0.5</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>150001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>10001</v>
@@ -743,127 +831,20 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>0.5</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>150002</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10002</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>150003</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
-        <v>10003</v>
-      </c>
-      <c r="D7" s="2">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>150004</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10004</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>150005</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10005</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
+      <c r="J5" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/excel_Character.xlsx
+++ b/ExcelData/excel_Character.xlsx
@@ -675,7 +675,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,7 +799,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
